--- a/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>80765</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64256</v>
+        <v>64960</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101671</v>
+        <v>100546</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1169301481934142</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09302938018042387</v>
+        <v>0.0940485550902396</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.147198323972581</v>
+        <v>0.1455695226389555</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>260</v>
@@ -762,19 +762,19 @@
         <v>148811</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130711</v>
+        <v>131536</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>165149</v>
+        <v>165442</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2026903355464742</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1780371446576474</v>
+        <v>0.1791601050906657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2249428789781265</v>
+        <v>0.2253421139088826</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -783,19 +783,19 @@
         <v>229576</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>204984</v>
+        <v>205040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>254735</v>
+        <v>256046</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1611184193862294</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1438595017606723</v>
+        <v>0.1438992419839491</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1787753425812072</v>
+        <v>0.1796953741726471</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>609945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>589039</v>
+        <v>590164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>626454</v>
+        <v>625750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8830698518065859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.852801676027419</v>
+        <v>0.8544304773610445</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9069706198195764</v>
+        <v>0.9059514449097602</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>981</v>
@@ -833,19 +833,19 @@
         <v>585369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>569031</v>
+        <v>568738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>603469</v>
+        <v>602644</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7973096644535257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7750571210218736</v>
+        <v>0.7746578860911174</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8219628553423528</v>
+        <v>0.8208398949093345</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1622</v>
@@ -854,19 +854,19 @@
         <v>1195313</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1170154</v>
+        <v>1168843</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1219905</v>
+        <v>1219849</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8388815806137707</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8212246574187928</v>
+        <v>0.8203046258273531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8561404982393277</v>
+        <v>0.8561007580160508</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>118202</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98514</v>
+        <v>97961</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>141406</v>
+        <v>144137</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1126895360980807</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09391941300927623</v>
+        <v>0.09339287271166115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.134811245825538</v>
+        <v>0.1374152743941557</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>344</v>
@@ -979,19 +979,19 @@
         <v>225669</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>203982</v>
+        <v>204131</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>250483</v>
+        <v>247641</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.210615313176567</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1903749435619374</v>
+        <v>0.1905140804947238</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2337743369168531</v>
+        <v>0.2311215491997208</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>470</v>
@@ -1000,19 +1000,19 @@
         <v>343871</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>313817</v>
+        <v>316129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>378227</v>
+        <v>378544</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1621733018569602</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1479995482639284</v>
+        <v>0.1490901813399525</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1783761168562102</v>
+        <v>0.1785257315700706</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>930715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>907511</v>
+        <v>904780</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>950403</v>
+        <v>950956</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8873104639019194</v>
+        <v>0.8873104639019195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8651887541744619</v>
+        <v>0.8625847256058442</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9060805869907236</v>
+        <v>0.9066071272883388</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1173</v>
@@ -1050,19 +1050,19 @@
         <v>845805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>820991</v>
+        <v>823833</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>867492</v>
+        <v>867343</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7893846868234329</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7662256630831468</v>
+        <v>0.7688784508002794</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8096250564380625</v>
+        <v>0.8094859195052763</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2011</v>
@@ -1071,19 +1071,19 @@
         <v>1776520</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1742164</v>
+        <v>1741847</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1806574</v>
+        <v>1804262</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8378266981430397</v>
+        <v>0.8378266981430396</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8216238831437902</v>
+        <v>0.8214742684299294</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8520004517360722</v>
+        <v>0.8509098186600477</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>89184</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72095</v>
+        <v>72679</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110348</v>
+        <v>110504</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1110533529975633</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0897735366632877</v>
+        <v>0.09050056594335477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1374077157866994</v>
+        <v>0.1376015295309851</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>179</v>
@@ -1196,19 +1196,19 @@
         <v>135789</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117546</v>
+        <v>117003</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157785</v>
+        <v>154713</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1671746490423902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1447146110164754</v>
+        <v>0.1440464101334129</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1942543612729988</v>
+        <v>0.1904726446774177</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>268</v>
@@ -1217,19 +1217,19 @@
         <v>224973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>199231</v>
+        <v>200651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>253650</v>
+        <v>254625</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.139273569783896</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1233374882868291</v>
+        <v>0.1242162680684989</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1570264871068764</v>
+        <v>0.157630196170187</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>713889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>692725</v>
+        <v>692569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>730978</v>
+        <v>730394</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8889466470024368</v>
+        <v>0.8889466470024369</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8625922842133008</v>
+        <v>0.862398470469015</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9102264633367128</v>
+        <v>0.9094994340566455</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>868</v>
@@ -1267,19 +1267,19 @@
         <v>676470</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>654474</v>
+        <v>657546</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>694713</v>
+        <v>695256</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8328253509576099</v>
+        <v>0.8328253509576098</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8057456387270011</v>
+        <v>0.8095273553225822</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8552853889835247</v>
+        <v>0.8559535898665871</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1455</v>
@@ -1288,19 +1288,19 @@
         <v>1390359</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1361682</v>
+        <v>1360707</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1416101</v>
+        <v>1414681</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8607264302161041</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8429735128931236</v>
+        <v>0.8423698038298131</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8766625117131708</v>
+        <v>0.8757837319315014</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>169716</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147593</v>
+        <v>146458</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194999</v>
+        <v>192269</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1714200639631168</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1490745879506983</v>
+        <v>0.1479284055999181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1969565558473847</v>
+        <v>0.1941993404772147</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>394</v>
@@ -1413,19 +1413,19 @@
         <v>267847</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>241579</v>
+        <v>244758</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>292888</v>
+        <v>292763</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2393543538718565</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2158802000850159</v>
+        <v>0.2187209607347301</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2617311553156353</v>
+        <v>0.2616195017306859</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>585</v>
@@ -1434,19 +1434,19 @@
         <v>437564</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>401975</v>
+        <v>402805</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>472367</v>
+        <v>471442</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2074644201887946</v>
+        <v>0.2074644201887947</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1905904265511945</v>
+        <v>0.1909837473589484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2239655008658107</v>
+        <v>0.2235273627945365</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>820346</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>795063</v>
+        <v>797793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>842469</v>
+        <v>843604</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8285799360368832</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8030434441526152</v>
+        <v>0.8058006595227855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8509254120493016</v>
+        <v>0.8520715944000821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1168</v>
@@ -1484,19 +1484,19 @@
         <v>851194</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>826153</v>
+        <v>826278</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>877462</v>
+        <v>874283</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7606456461281436</v>
+        <v>0.7606456461281437</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7382688446843647</v>
+        <v>0.7383804982693141</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.784119799914984</v>
+        <v>0.7812790392652699</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1983</v>
@@ -1505,19 +1505,19 @@
         <v>1671540</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1636737</v>
+        <v>1637662</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1707129</v>
+        <v>1706299</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7925355798112055</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7760344991341894</v>
+        <v>0.7764726372054636</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8094095734488053</v>
+        <v>0.8090162526410516</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>457867</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>418444</v>
+        <v>418896</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>504002</v>
+        <v>502177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1296060271455767</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1184468295219726</v>
+        <v>0.1185745432928703</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1426650523473871</v>
+        <v>0.1421486475217037</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1177</v>
@@ -1630,19 +1630,19 @@
         <v>778116</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>736127</v>
+        <v>737737</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>822233</v>
+        <v>821738</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.208222124193384</v>
+        <v>0.2082221241933839</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1969858243523966</v>
+        <v>0.1974166045319189</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2200274891240126</v>
+        <v>0.2198950086213996</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1672</v>
@@ -1651,19 +1651,19 @@
         <v>1235984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1176748</v>
+        <v>1169080</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1295028</v>
+        <v>1298645</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.170018162692412</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1618698622266378</v>
+        <v>0.160815124806613</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1781401317345386</v>
+        <v>0.1786375909643597</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3074895</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3028760</v>
+        <v>3030585</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3114318</v>
+        <v>3113866</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8703939728544235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8573349476526134</v>
+        <v>0.8578513524782964</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8815531704780274</v>
+        <v>0.8814254567071298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4190</v>
@@ -1701,19 +1701,19 @@
         <v>2958838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2914721</v>
+        <v>2915216</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3000827</v>
+        <v>2999217</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7917778758066162</v>
+        <v>0.7917778758066161</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7799725108759875</v>
+        <v>0.7801049913786006</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8030141756476036</v>
+        <v>0.8025833954680817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7071</v>
@@ -1722,19 +1722,19 @@
         <v>6033732</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5974688</v>
+        <v>5971071</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6092968</v>
+        <v>6100636</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8299818373075879</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8218598682654613</v>
+        <v>0.8213624090356404</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8381301377733622</v>
+        <v>0.8391848751933871</v>
       </c>
     </row>
     <row r="18">
